--- a/medicine/Enfance/Stanley_Williams/Stanley_Williams.xlsx
+++ b/medicine/Enfance/Stanley_Williams/Stanley_Williams.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanley "Tookie" Williams (né le 29 décembre 1953 à Shreveport en Louisiane, mort exécuté le 13 décembre 2005 au pénitencier de Saint Quentin en Californie) est une icone du gang des Crips, un gang de rue créé dans le quartier de South Central à Los Angeles à la fin des années 1960. Reconnu coupable en 1979 du meurtre de quatre personnes, un couple taïwanais et leur fille, et un employé d'une supérette dans une affaire distincte, il est condamné à mort. 
-Devenu écrivain et militant anti-gang[1] pendant ses années en prison, il est exécuté par injection létale après que sa grâce a été refusée par le gouverneur de Californie Arnold Schwarzenegger[2].
+Devenu écrivain et militant anti-gang pendant ses années en prison, il est exécuté par injection létale après que sa grâce a été refusée par le gouverneur de Californie Arnold Schwarzenegger.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est l'une des plus grandes figures, au côté de Raymond Washington, du gang des Crips.
 Williams est accusé, inculpé et reconnu coupable pour le meurtre d'Albert Owens, d'un couple et de leur fille : Tsai-Shai Yang, Yen-I Yang, Yee Chen Lin en 1979 pendant deux cambriolages. Bien qu'ayant toujours clamé son innocence dans ces assassinats, et ayant été inculpé à la suite de témoignages d'autres personnes ayant participé à ces faits, mais bénéficiant de réductions de peines et ayant évité la peine capitale en échange d'un témoignage en défaveur de Williams, il est condamné à la peine capitale en 1981. Dans le couloir de la mort, il milite dès les années 1990 pour la non-violence et la paix depuis sa cellule. C'est un véritable travail sur lui-même que « Tookie » effectue dans sa cellule en isolement pendant près de 6 ans, dans sa prison avec un long apprentissage sur les valeurs humaines et philosophiques. Il apprend le latin et les textes saints. Williams en conclut que pour stopper cette folie meurtrière qui sévit dans les ghettos américains, ce sont les enfants qu'il faut éduquer dans la non-violence et le respect des valeurs humaines dès leur plus jeune âge. Tookie avait été entraîné dans une violence impitoyable dès l'âge de 9 ans. Dès lors il voue sa vie à « éviter que d'autres ne tombent ici ».  
@@ -521,7 +535,7 @@
 Son exécution déclenche une vive controverse aux États-Unis. Il est soutenu par une partie de la communauté noire américaine et de nombreuses célébrités, dont le chanteur Snoop Dogg, Joan Baez et le révérend Jesse Jackson. Arnold Schwarzenegger a toujours affirmé être un partisan de la peine de mort.
 Dans ses dernières volontés, Williams demande qu'aucune émeute ne soit déclenchée en réaction à son exécution.
 Ses cendres sont dispersées dans un lac du parc Thokoza dans la ville de Soweto, en Afrique du Sud.
-Williams est le douzième exécuté en Californie depuis le rétablissement de la peine de mort dans cet état en 1977, et le 1003e aux États-Unis depuis 1976 quand elle fut de nouveau autorisée par la Cour suprême[3].
+Williams est le douzième exécuté en Californie depuis le rétablissement de la peine de mort dans cet état en 1977, et le 1003e aux États-Unis depuis 1976 quand elle fut de nouveau autorisée par la Cour suprême.
 </t>
         </is>
       </c>
